--- a/biology/Botanique/Ardissoneaceae/Ardissoneaceae.xlsx
+++ b/biology/Botanique/Ardissoneaceae/Ardissoneaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ardissoneaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre Toxariales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Ardissonea, nommé en hommage au botaniste, algologue italien Francesco Ardissone.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Peragallo le genre Ardissonea (qu'il appelait Ardissonia), faisait partie du groupe des  Synedra, caractérisé par « (des) valves[1] très allongées, linaires, bacillaires ou lancéolées, rarement cunéiformes, et sans épines marginales »   ; le sous-genre Ardissonea se distinguant par « l'absence de perles entre les stries ; la présence de lignes longitudinales ; des valves non cunéiformes » [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Peragallo le genre Ardissonea (qu'il appelait Ardissonia), faisait partie du groupe des  Synedra, caractérisé par « (des) valves très allongées, linaires, bacillaires ou lancéolées, rarement cunéiformes, et sans épines marginales »   ; le sous-genre Ardissonea se distinguant par « l'absence de perles entre les stries ; la présence de lignes longitudinales ; des valves non cunéiformes » .
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardissonea est un genre méditerranéen, mais que l'on trouve également en Mer Noire et dans l'océan Atlantique.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (23 août 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (23 août 2022) :
 Ardissonea De Notaris, 1870</t>
         </is>
       </c>
@@ -635,10 +655,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Ardissoneaceae Round, 1996[3].
-Le genre type fut considéré par Peragallo comme un sous-genre de Synedra (Fragilariaceae) qui en comprenait cinq [2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Ardissoneaceae Round, 1996.
+Le genre type fut considéré par Peragallo comme un sous-genre de Synedra (Fragilariaceae) qui en comprenait cinq  :
 Ardissonia / Ardissonea De Notaris, 1870 : genre type des Ardissoneaceae,
 Eusynedra Grun. : successivement Synedra gelida, S. balthica, S.  gaillonii, intégré aux Fragilariaceae
 Synedrosphenia Peragallo, 1897 : intégré aux Climacospheniaceae,
@@ -671,7 +693,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Round, F.E., Crawford, R.M. &amp; Mann, D.G. (1990). The diatoms biology and morphology of the genera.  pp. [i-ix], 1-747. Cambridge: Cambridge University Press.</t>
         </is>
